--- a/bin/mia-result/Inference/I_5/I_5.xlsx
+++ b/bin/mia-result/Inference/I_5/I_5.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{336F19FF-8767-44F1-8F5A-A17D7BE5A9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="26640" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24060" yWindow="1095" windowWidth="26640" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
